--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/510TB_TG102E-4G_251223.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/510TB_TG102E-4G_251223.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\16_Lô 4-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="11205" windowHeight="7995" activeTab="10"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="11205" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="509">
   <si>
     <t>008080056241024</t>
   </si>
@@ -1558,6 +1558,9 @@
   </si>
   <si>
     <t>008080056241651</t>
+  </si>
+  <si>
+    <t>008080056252542</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3558,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
